--- a/tests.xlsx
+++ b/tests.xlsx
@@ -24,26 +24,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Назва тесту</t>
   </si>
   <si>
-    <t>Результат</t>
-  </si>
-  <si>
     <t>README</t>
   </si>
   <si>
-    <t>В папці з встановленою програмою є README, в якому написані незрозумілі символи, тобто помилка кодування</t>
-  </si>
-  <si>
     <t>Довідка</t>
   </si>
   <si>
-    <t>Під Windows 10 довідка не відкривається, тому що її формат застарів</t>
-  </si>
-  <si>
     <t>Пусті елементи</t>
   </si>
   <si>
@@ -59,19 +50,73 @@
     <t>Меню</t>
   </si>
   <si>
-    <t>Наявна вкладка меню з назвою Edjt, має бути Edit</t>
-  </si>
-  <si>
     <t>Закриття</t>
   </si>
   <si>
-    <t>При натисканні File &gt; Exit &gt; Скасувати, програма всеодно закривається</t>
-  </si>
-  <si>
     <t>Сортування</t>
   </si>
   <si>
-    <t>При додаванні 4+ буквенних елемента та спробі сортувати в спадаючому порядку, останні 2 елемента міняються місцями</t>
+    <t>Дії для відтворення</t>
+  </si>
+  <si>
+    <t>Відкрити файл Readme.txt в папці з встановленою програмою</t>
+  </si>
+  <si>
+    <t>Бачимо незрозумілі символи, тобто помилка кодування, скоріш за все кирилиці</t>
+  </si>
+  <si>
+    <t>Очікуваний результат</t>
+  </si>
+  <si>
+    <t>Реальний результат</t>
+  </si>
+  <si>
+    <t>Бачимо опис програми англійською мовою</t>
+  </si>
+  <si>
+    <t>Натиснути Help &gt; Contents</t>
+  </si>
+  <si>
+    <t>Бачимо довідку по використанні програми</t>
+  </si>
+  <si>
+    <t>На Windows 10 довідка не відкривається, тому що її формат застарів</t>
+  </si>
+  <si>
+    <t>Нічого не писати в поле вводу та натиснути Add to list</t>
+  </si>
+  <si>
+    <t>Нічого не відбувається</t>
+  </si>
+  <si>
+    <t>Натиснути Edjt &gt; Undo або Ctrl+Z</t>
+  </si>
+  <si>
+    <t>Можна повторити безліч раз та постійно буде відмінятись минула дія</t>
+  </si>
+  <si>
+    <t>Наявна вкладка меню з назвою Edjt</t>
+  </si>
+  <si>
+    <t>Наявна вкладка меню з назвою Edit</t>
+  </si>
+  <si>
+    <t>Натиснути File &gt; Exit &gt; Скасувати</t>
+  </si>
+  <si>
+    <t>Закривається вікно збереження файлу</t>
+  </si>
+  <si>
+    <t>Закривається вся програма</t>
+  </si>
+  <si>
+    <t>Додати  4+ буквенних елемента та відсортувати в спадаючому порядку</t>
+  </si>
+  <si>
+    <t>Всі елементи сортуються в спадаючому порядку</t>
+  </si>
+  <si>
+    <t>Останні 2 елемента міняються місцями</t>
   </si>
 </sst>
 </file>
@@ -399,165 +444,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tests.xlsx
+++ b/tests.xlsx
@@ -110,13 +110,13 @@
     <t>Закривається вся програма</t>
   </si>
   <si>
-    <t>Додати  4+ буквенних елемента та відсортувати в спадаючому порядку</t>
-  </si>
-  <si>
     <t>Всі елементи сортуються в спадаючому порядку</t>
   </si>
   <si>
     <t>Останні 2 елемента міняються місцями</t>
+  </si>
+  <si>
+    <t>Додати  4+ буквених елемента та відсортувати в спадаючому порядку</t>
   </si>
 </sst>
 </file>
@@ -446,8 +446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -558,13 +558,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
